--- a/CompetitionManager/data/excel/template.xlsx
+++ b/CompetitionManager/data/excel/template.xlsx
@@ -7,9 +7,10 @@
     <workbookView xWindow="17800" yWindow="1960" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="4" sheetId="1" r:id="rId1"/>
-    <sheet name="8" sheetId="2" r:id="rId2"/>
-    <sheet name="16" sheetId="3" r:id="rId3"/>
+    <sheet name="2" sheetId="4" r:id="rId1"/>
+    <sheet name="4" sheetId="1" r:id="rId2"/>
+    <sheet name="8" sheetId="2" r:id="rId3"/>
+    <sheet name="16" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -40,6 +41,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -137,10 +164,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -156,9 +185,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -487,55 +524,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C14"/>
+  <dimension ref="C1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="3" spans="1:3">
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="C14" s="3"/>
+    <row r="1" spans="3:6">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="3:6">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="3:6">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" s="20"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -550,137 +593,201 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D31"/>
+  <dimension ref="C3:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="3" spans="2:4">
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="C7" s="2"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="6"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="2"/>
+    <row r="3" spans="3:5">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" s="5"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="D12" s="3"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="E14" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="3" spans="3:5">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" s="6"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="3:5">
       <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="3:5">
       <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="2"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="5"/>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="14"/>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="14"/>
-      <c r="B19" s="2"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="14"/>
-      <c r="B20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="14"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="14"/>
-      <c r="B22" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="C13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="2"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="5"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="14"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="14"/>
+      <c r="C19" s="2"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="14"/>
+      <c r="C20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="14"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="14"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="14"/>
-      <c r="B23" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="14"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="14"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="14"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="14"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="14"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="14"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="14"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="14"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="14"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="14"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="14"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="14"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="14"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="14"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="14"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="14"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -693,7 +800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E63"/>
   <sheetViews>

--- a/CompetitionManager/data/excel/template.xlsx
+++ b/CompetitionManager/data/excel/template.xlsx
@@ -11,6 +11,7 @@
     <sheet name="4" sheetId="1" r:id="rId2"/>
     <sheet name="8" sheetId="2" r:id="rId3"/>
     <sheet name="16" sheetId="3" r:id="rId4"/>
+    <sheet name="32" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -164,8 +165,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -192,10 +201,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="11">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -524,61 +541,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:F8"/>
+  <dimension ref="D1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="3:6">
-      <c r="C1" s="15"/>
+    <row r="1" spans="4:7">
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
-    </row>
-    <row r="2" spans="3:6">
-      <c r="C2" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="4:7">
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="3:6">
-      <c r="C3" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="4:7">
       <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="3:6">
-      <c r="C4" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="4:7">
       <c r="D4" s="15"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="3:6">
-      <c r="C5" s="20"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="3:6">
-      <c r="C6" s="20"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="4:7">
+      <c r="D5" s="20"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="4:7">
       <c r="D6" s="20"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="3:6">
-      <c r="C7" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="4:7">
       <c r="D7" s="20"/>
-      <c r="E7" s="15"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="3:6">
-      <c r="C8" s="20"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="4:7">
       <c r="D8" s="20"/>
-      <c r="E8" s="15"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -593,55 +610,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E14"/>
+  <dimension ref="D3:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="3" spans="3:5">
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="3:5">
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="3:5">
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="3:5">
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="3:5">
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="3:5">
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="3:5">
-      <c r="C9" s="5"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="3:5">
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="3:5">
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="3:5">
-      <c r="D12" s="3"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="3:5">
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="E14" s="3"/>
+    <row r="3" spans="4:6">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="4:6">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="4:6">
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="4:6">
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="4:6">
+      <c r="E7" s="2"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="4:6">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="4:6">
+      <c r="D9" s="5"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="4:6">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="4:6">
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="4:6">
+      <c r="E12" s="3"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="4:6">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="4:6">
+      <c r="F14" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -657,137 +674,137 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E31"/>
+  <dimension ref="C3:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="3" spans="3:5">
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="3:5">
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="3:5">
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="3:5">
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="3:5">
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="3:5">
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="3:5">
-      <c r="C9" s="6"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="2"/>
+    <row r="3" spans="4:6">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="4:6">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="4:6">
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="4:6">
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="4:6">
+      <c r="E7" s="2"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="4:6">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="4:6">
+      <c r="D9" s="6"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="4:6">
       <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="3:5">
-      <c r="C11" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="4:6">
       <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="2"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="3:5">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="3:5">
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="5"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="14"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="14"/>
-      <c r="C19" s="2"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="14"/>
-      <c r="C20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="14"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="14"/>
-      <c r="C22" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="4:6">
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="4:6">
+      <c r="D13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="4:6">
+      <c r="D14" s="2"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="4:6">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="4:6">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="5"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="14"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="14"/>
+      <c r="D19" s="2"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="14"/>
+      <c r="D20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" s="14"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="14"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="14"/>
-      <c r="C23" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" s="14"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="14"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="14"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="14"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="14"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="14"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="14"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="14"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="14"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" s="14"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" s="14"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26" s="14"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27" s="14"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" s="14"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" s="14"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30" s="14"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="C31" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -802,458 +819,1399 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+  <dimension ref="B1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="2:6">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="7"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="7"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="7"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="7"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="7"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="7"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="7"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="7"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="7"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="7"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="7"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="7"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="7"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="7"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="7"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="7"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="13"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="7"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="7"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="7"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="7"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="7"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="7"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="7"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="7"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="7"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="7"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="7"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="7"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="7"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="7"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="7"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="9"/>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="9"/>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="9"/>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F127"/>
+  <sheetViews>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:6">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="7"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="D6" s="7"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="9"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="9"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="9"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="9"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="C12" s="7"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="C13" s="7"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="C14" s="7"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="7"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="7"/>
-      <c r="B18" s="9"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="7"/>
-      <c r="B19" s="9"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="D19" s="9"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="7"/>
-      <c r="B20" s="9"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="D20" s="9"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="7"/>
-      <c r="B21" s="9"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="D21" s="9"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="7"/>
-      <c r="B22" s="9"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="7"/>
-      <c r="B23" s="9"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="E23" s="9"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="7"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="B24" s="7"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="7"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="7"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="B26" s="7"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="7"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="B27" s="7"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="7"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="B28" s="7"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="7"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="E29" s="7"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="7"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="E30" s="7"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="7"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="7"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="13"/>
-      <c r="B33" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="B33" s="11"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="7"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="7"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="7"/>
       <c r="B35" s="9"/>
-      <c r="C35" s="7"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="E35" s="7"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="7"/>
       <c r="B36" s="9"/>
-      <c r="C36" s="7"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="E36" s="7"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="7"/>
       <c r="B37" s="9"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="C37" s="9"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="7"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="C38" s="9"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="7"/>
       <c r="B39" s="9"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="C39" s="9"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="7"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="C40" s="9"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="7"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="7"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="11"/>
       <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="7"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="7"/>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="E42" s="9"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="7"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="E43" s="9"/>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="7"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="9"/>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="7"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="9"/>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="D45" s="9"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="7"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="10"/>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="D46" s="9"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="7"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
-      <c r="D47" s="7"/>
+      <c r="D47" s="9"/>
       <c r="E47" s="7"/>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="7"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="7"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="9"/>
       <c r="E48" s="7"/>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="7"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="9"/>
       <c r="E49" s="7"/>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="7"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="9"/>
       <c r="E50" s="7"/>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="8"/>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="B51" s="9"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="9"/>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="B52" s="9"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="9"/>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="9"/>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="B53" s="9"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="9"/>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="7"/>
       <c r="D54" s="9"/>
-      <c r="E54" s="10"/>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="E54" s="9"/>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="7"/>
       <c r="D55" s="9"/>
-      <c r="E55" s="7"/>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="E55" s="9"/>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="7"/>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="B56" s="9"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="7"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="12"/>
       <c r="E57" s="7"/>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
+      <c r="B58" s="9"/>
       <c r="C58" s="7"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="D58" s="7"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
+      <c r="B59" s="9"/>
       <c r="C59" s="7"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="8"/>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="D59" s="7"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
+      <c r="B60" s="9"/>
       <c r="C60" s="7"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="9"/>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="D60" s="7"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="9"/>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
+      <c r="B61" s="9"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
-      <c r="E61" s="9"/>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="E61" s="7"/>
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
+      <c r="B62" s="9"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
-      <c r="E62" s="10"/>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="E62" s="7"/>
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
+      <c r="B63" s="9"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="5"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="B66" s="2"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="B67" s="2"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="B68" s="2"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="9"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="B69" s="2"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="9"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="B70" s="2"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="B71" s="2"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="B72" s="2"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="7"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="B73" s="2"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="B74" s="2"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="B75" s="2"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="8"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="B76" s="2"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="9"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="B77" s="2"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="9"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="B78" s="2"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="B79" s="2"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="B80" s="2"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" s="2"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="2"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" s="2"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84" s="2"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="9"/>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85" s="2"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="9"/>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86" s="2"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="10"/>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87" s="2"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="7"/>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="B88" s="2"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="7"/>
+    </row>
+    <row r="89" spans="2:6">
+      <c r="B89" s="2"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="B90" s="2"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="7"/>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="B91" s="2"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="8"/>
+    </row>
+    <row r="92" spans="2:6">
+      <c r="B92" s="2"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="9"/>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="B93" s="2"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="9"/>
+    </row>
+    <row r="94" spans="2:6">
+      <c r="B94" s="2"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="10"/>
+    </row>
+    <row r="95" spans="2:6">
+      <c r="B95" s="2"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+    </row>
+    <row r="96" spans="2:6">
+      <c r="B96" s="3"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97" s="13"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="C98" s="9"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="C99" s="9"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="8"/>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="C100" s="9"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="9"/>
+    </row>
+    <row r="101" spans="2:6">
+      <c r="C101" s="9"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="9"/>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="C102" s="9"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="10"/>
+    </row>
+    <row r="103" spans="2:6">
+      <c r="C103" s="9"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="7"/>
+    </row>
+    <row r="104" spans="2:6">
+      <c r="C104" s="9"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="7"/>
+    </row>
+    <row r="105" spans="2:6">
+      <c r="C105" s="9"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+    </row>
+    <row r="106" spans="2:6">
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="7"/>
+    </row>
+    <row r="107" spans="2:6">
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="8"/>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="9"/>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="9"/>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="10"/>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+    </row>
+    <row r="112" spans="2:6">
+      <c r="C112" s="10"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+    </row>
+    <row r="113" spans="3:6">
+      <c r="C113" s="7"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+    </row>
+    <row r="114" spans="3:6">
+      <c r="C114" s="7"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+    </row>
+    <row r="115" spans="3:6">
+      <c r="C115" s="7"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="8"/>
+    </row>
+    <row r="116" spans="3:6">
+      <c r="C116" s="7"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="9"/>
+    </row>
+    <row r="117" spans="3:6">
+      <c r="C117" s="7"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="9"/>
+    </row>
+    <row r="118" spans="3:6">
+      <c r="C118" s="7"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="10"/>
+    </row>
+    <row r="119" spans="3:6">
+      <c r="C119" s="7"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="7"/>
+    </row>
+    <row r="120" spans="3:6">
+      <c r="C120" s="7"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="7"/>
+    </row>
+    <row r="121" spans="3:6">
+      <c r="C121" s="7"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+    </row>
+    <row r="122" spans="3:6">
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="7"/>
+    </row>
+    <row r="123" spans="3:6">
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="8"/>
+    </row>
+    <row r="124" spans="3:6">
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="9"/>
+    </row>
+    <row r="125" spans="3:6">
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="9"/>
+    </row>
+    <row r="126" spans="3:6">
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="10"/>
+    </row>
+    <row r="127" spans="3:6">
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
